--- a/6 семестр/ИАД/лабы/ЛР 2/example.xlsx
+++ b/6 семестр/ИАД/лабы/ЛР 2/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosta\Documents\Учёба\СДЕЛАНО\6 семестр\ИАД\лабы\ЛР 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1DD65-9372-4CC3-B187-D6AF21E1D6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B17ECA-0F1E-419C-8C93-D9CAC854AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="10" windowWidth="19120" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t xml:space="preserve"> ожидаемая продол-ть</t>
   </si>
   <si>
-    <t>образовании</t>
-  </si>
-  <si>
     <t>бедность</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>общест – ое развитие</t>
+  </si>
+  <si>
+    <t>образование</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -615,19 +617,19 @@
         <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
